--- a/natmiOut/OldD2/LR-pairs_lrc2p/Penk-Ogfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Penk-Ogfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Penk</t>
   </si>
   <si>
@@ -88,16 +94,10 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.4542752252072</v>
+        <v>20.908407</v>
       </c>
       <c r="H2">
-        <v>19.4542752252072</v>
+        <v>62.725221</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9843255515709016</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9867193626172466</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.0054804833666</v>
+        <v>12.028715</v>
       </c>
       <c r="N2">
-        <v>12.0054804833666</v>
+        <v>24.05743</v>
       </c>
       <c r="O2">
-        <v>0.1773637490084868</v>
+        <v>0.1745799853607583</v>
       </c>
       <c r="P2">
-        <v>0.1773637490084868</v>
+        <v>0.1289946853391568</v>
       </c>
       <c r="Q2">
-        <v>233.5579215342674</v>
+        <v>251.501268907005</v>
       </c>
       <c r="R2">
-        <v>233.5579215342674</v>
+        <v>1509.00761344203</v>
       </c>
       <c r="S2">
-        <v>0.1773637490084868</v>
+        <v>0.1718435403834683</v>
       </c>
       <c r="T2">
-        <v>0.1773637490084868</v>
+        <v>0.1272815536988651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.4542752252072</v>
+        <v>20.908407</v>
       </c>
       <c r="H3">
-        <v>19.4542752252072</v>
+        <v>62.725221</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9843255515709016</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9867193626172466</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.79338599238228</v>
+        <v>8.459135</v>
       </c>
       <c r="N3">
-        <v>7.79338599238228</v>
+        <v>25.377405</v>
       </c>
       <c r="O3">
-        <v>0.1151360963015393</v>
+        <v>0.1227725209604416</v>
       </c>
       <c r="P3">
-        <v>0.1151360963015393</v>
+        <v>0.1360723224675015</v>
       </c>
       <c r="Q3">
-        <v>151.6146760320794</v>
+        <v>176.867037447945</v>
       </c>
       <c r="R3">
-        <v>151.6146760320794</v>
+        <v>1591.803337031505</v>
       </c>
       <c r="S3">
-        <v>0.1151360963015393</v>
+        <v>0.1208481294121367</v>
       </c>
       <c r="T3">
-        <v>0.1151360963015393</v>
+        <v>0.1342651952949815</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.4542752252072</v>
+        <v>20.908407</v>
       </c>
       <c r="H4">
-        <v>19.4542752252072</v>
+        <v>62.725221</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9843255515709016</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9867193626172466</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.9679336944895</v>
+        <v>14.13277766666667</v>
       </c>
       <c r="N4">
-        <v>13.9679336944895</v>
+        <v>42.398333</v>
       </c>
       <c r="O4">
-        <v>0.2063561795289265</v>
+        <v>0.205117514061437</v>
       </c>
       <c r="P4">
-        <v>0.2063561795289265</v>
+        <v>0.2273376509560575</v>
       </c>
       <c r="Q4">
-        <v>271.736026420044</v>
+        <v>295.493867495177</v>
       </c>
       <c r="R4">
-        <v>271.736026420044</v>
+        <v>2659.444807456593</v>
       </c>
       <c r="S4">
-        <v>0.2063561795289265</v>
+        <v>0.2019024101653762</v>
       </c>
       <c r="T4">
-        <v>0.2063561795289265</v>
+        <v>0.2243184620502632</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.4542752252072</v>
+        <v>20.908407</v>
       </c>
       <c r="H5">
-        <v>19.4542752252072</v>
+        <v>62.725221</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9843255515709016</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9867193626172466</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.9762751796402</v>
+        <v>19.060284</v>
       </c>
       <c r="N5">
-        <v>18.9762751796402</v>
+        <v>57.180852</v>
       </c>
       <c r="O5">
-        <v>0.2803472391413913</v>
+        <v>0.2766333811792777</v>
       </c>
       <c r="P5">
-        <v>0.2803472391413913</v>
+        <v>0.3066007470941366</v>
       </c>
       <c r="Q5">
-        <v>369.1696800939887</v>
+        <v>398.520175407588</v>
       </c>
       <c r="R5">
-        <v>369.1696800939887</v>
+        <v>3586.681578668292</v>
       </c>
       <c r="S5">
-        <v>0.2803472391413913</v>
+        <v>0.272297305512216</v>
       </c>
       <c r="T5">
-        <v>0.2803472391413913</v>
+        <v>0.3025288937506981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.4542752252072</v>
+        <v>20.908407</v>
       </c>
       <c r="H6">
-        <v>19.4542752252072</v>
+        <v>62.725221</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.9843255515709016</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9867193626172466</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.01243608170734</v>
+        <v>7.045428</v>
       </c>
       <c r="N6">
-        <v>7.01243608170734</v>
+        <v>21.136284</v>
       </c>
       <c r="O6">
-        <v>0.1035986818567733</v>
+        <v>0.1022545398324157</v>
       </c>
       <c r="P6">
-        <v>0.1035986818567733</v>
+        <v>0.1133316527916346</v>
       </c>
       <c r="Q6">
-        <v>136.4218615327082</v>
+        <v>147.308676113196</v>
       </c>
       <c r="R6">
-        <v>136.4218615327082</v>
+        <v>1325.778085018764</v>
       </c>
       <c r="S6">
-        <v>0.1035986818567733</v>
+        <v>0.1006517563211713</v>
       </c>
       <c r="T6">
-        <v>0.1035986818567733</v>
+        <v>0.1118265362069208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,805 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>20.908407</v>
+      </c>
+      <c r="H7">
+        <v>62.725221</v>
+      </c>
+      <c r="I7">
+        <v>0.9843255515709016</v>
+      </c>
+      <c r="J7">
+        <v>0.9867193626172466</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>8.174542499999999</v>
+      </c>
+      <c r="N7">
+        <v>16.349085</v>
+      </c>
+      <c r="O7">
+        <v>0.1186420586056696</v>
+      </c>
+      <c r="P7">
+        <v>0.08766294135151294</v>
+      </c>
+      <c r="Q7">
+        <v>170.9166616287975</v>
+      </c>
+      <c r="R7">
+        <v>1025.499969772785</v>
+      </c>
+      <c r="S7">
+        <v>0.1167824097765329</v>
+      </c>
+      <c r="T7">
+        <v>0.08649872161551792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.17835</v>
+      </c>
+      <c r="H8">
+        <v>0.53505</v>
+      </c>
+      <c r="I8">
+        <v>0.00839635760498972</v>
+      </c>
+      <c r="J8">
+        <v>0.008416776960711829</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>12.028715</v>
+      </c>
+      <c r="N8">
+        <v>24.05743</v>
+      </c>
+      <c r="O8">
+        <v>0.1745799853607583</v>
+      </c>
+      <c r="P8">
+        <v>0.1289946853391568</v>
+      </c>
+      <c r="Q8">
+        <v>2.14532132025</v>
+      </c>
+      <c r="R8">
+        <v>12.8719279215</v>
+      </c>
+      <c r="S8">
+        <v>0.001465835987762797</v>
+      </c>
+      <c r="T8">
+        <v>0.001085719495616887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.17835</v>
+      </c>
+      <c r="H9">
+        <v>0.53505</v>
+      </c>
+      <c r="I9">
+        <v>0.00839635760498972</v>
+      </c>
+      <c r="J9">
+        <v>0.008416776960711829</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.459135</v>
+      </c>
+      <c r="N9">
+        <v>25.377405</v>
+      </c>
+      <c r="O9">
+        <v>0.1227725209604416</v>
+      </c>
+      <c r="P9">
+        <v>0.1360723224675015</v>
+      </c>
+      <c r="Q9">
+        <v>1.50868672725</v>
+      </c>
+      <c r="R9">
+        <v>13.57818054525</v>
+      </c>
+      <c r="S9">
+        <v>0.001030841990049963</v>
+      </c>
+      <c r="T9">
+        <v>0.001145290388735017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.17835</v>
+      </c>
+      <c r="H10">
+        <v>0.53505</v>
+      </c>
+      <c r="I10">
+        <v>0.00839635760498972</v>
+      </c>
+      <c r="J10">
+        <v>0.008416776960711829</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14.13277766666667</v>
+      </c>
+      <c r="N10">
+        <v>42.398333</v>
+      </c>
+      <c r="O10">
+        <v>0.205117514061437</v>
+      </c>
+      <c r="P10">
+        <v>0.2273376509560575</v>
+      </c>
+      <c r="Q10">
+        <v>2.52058089685</v>
+      </c>
+      <c r="R10">
+        <v>22.68522807165</v>
+      </c>
+      <c r="S10">
+        <v>0.001722239999106333</v>
+      </c>
+      <c r="T10">
+        <v>0.001913450302869292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.17835</v>
+      </c>
+      <c r="H11">
+        <v>0.53505</v>
+      </c>
+      <c r="I11">
+        <v>0.00839635760498972</v>
+      </c>
+      <c r="J11">
+        <v>0.008416776960711829</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>19.060284</v>
+      </c>
+      <c r="N11">
+        <v>57.180852</v>
+      </c>
+      <c r="O11">
+        <v>0.2766333811792777</v>
+      </c>
+      <c r="P11">
+        <v>0.3066007470941366</v>
+      </c>
+      <c r="Q11">
+        <v>3.3994016514</v>
+      </c>
+      <c r="R11">
+        <v>30.5946148626</v>
+      </c>
+      <c r="S11">
+        <v>0.002322712793858648</v>
+      </c>
+      <c r="T11">
+        <v>0.002580590104278963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.17835</v>
+      </c>
+      <c r="H12">
+        <v>0.53505</v>
+      </c>
+      <c r="I12">
+        <v>0.00839635760498972</v>
+      </c>
+      <c r="J12">
+        <v>0.008416776960711829</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.045428</v>
+      </c>
+      <c r="N12">
+        <v>21.136284</v>
+      </c>
+      <c r="O12">
+        <v>0.1022545398324157</v>
+      </c>
+      <c r="P12">
+        <v>0.1133316527916346</v>
+      </c>
+      <c r="Q12">
+        <v>1.2565520838</v>
+      </c>
+      <c r="R12">
+        <v>11.3089687542</v>
+      </c>
+      <c r="S12">
+        <v>0.000858565683166628</v>
+      </c>
+      <c r="T12">
+        <v>0.0009538872441360225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.17835</v>
+      </c>
+      <c r="H13">
+        <v>0.53505</v>
+      </c>
+      <c r="I13">
+        <v>0.00839635760498972</v>
+      </c>
+      <c r="J13">
+        <v>0.008416776960711829</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.174542499999999</v>
+      </c>
+      <c r="N13">
+        <v>16.349085</v>
+      </c>
+      <c r="O13">
+        <v>0.1186420586056696</v>
+      </c>
+      <c r="P13">
+        <v>0.08766294135151294</v>
+      </c>
+      <c r="Q13">
+        <v>1.457929654875</v>
+      </c>
+      <c r="R13">
+        <v>8.747577929249999</v>
+      </c>
+      <c r="S13">
+        <v>0.0009961611510453496</v>
+      </c>
+      <c r="T13">
+        <v>0.0007378394250756463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.1545965</v>
+      </c>
+      <c r="H14">
+        <v>0.309193</v>
+      </c>
+      <c r="I14">
+        <v>0.007278090824108737</v>
+      </c>
+      <c r="J14">
+        <v>0.004863860422041627</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.028715</v>
+      </c>
+      <c r="N14">
+        <v>24.05743</v>
+      </c>
+      <c r="O14">
+        <v>0.1745799853607583</v>
+      </c>
+      <c r="P14">
+        <v>0.1289946853391568</v>
+      </c>
+      <c r="Q14">
+        <v>1.8595972384975</v>
+      </c>
+      <c r="R14">
+        <v>7.43838895399</v>
+      </c>
+      <c r="S14">
+        <v>0.001270608989527173</v>
+      </c>
+      <c r="T14">
+        <v>0.0006274121446748379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.1545965</v>
+      </c>
+      <c r="H15">
+        <v>0.309193</v>
+      </c>
+      <c r="I15">
+        <v>0.007278090824108737</v>
+      </c>
+      <c r="J15">
+        <v>0.004863860422041627</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.459135</v>
+      </c>
+      <c r="N15">
+        <v>25.377405</v>
+      </c>
+      <c r="O15">
+        <v>0.1227725209604416</v>
+      </c>
+      <c r="P15">
+        <v>0.1360723224675015</v>
+      </c>
+      <c r="Q15">
+        <v>1.3077526640275</v>
+      </c>
+      <c r="R15">
+        <v>7.846515984164999</v>
+      </c>
+      <c r="S15">
+        <v>0.0008935495582548875</v>
+      </c>
+      <c r="T15">
+        <v>0.000661836783784966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.1545965</v>
+      </c>
+      <c r="H16">
+        <v>0.309193</v>
+      </c>
+      <c r="I16">
+        <v>0.007278090824108737</v>
+      </c>
+      <c r="J16">
+        <v>0.004863860422041627</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.13277766666667</v>
+      </c>
+      <c r="N16">
+        <v>42.398333</v>
+      </c>
+      <c r="O16">
+        <v>0.205117514061437</v>
+      </c>
+      <c r="P16">
+        <v>0.2273376509560575</v>
+      </c>
+      <c r="Q16">
+        <v>2.184877962544833</v>
+      </c>
+      <c r="R16">
+        <v>13.109267775269</v>
+      </c>
+      <c r="S16">
+        <v>0.00149286389695454</v>
+      </c>
+      <c r="T16">
+        <v>0.001105738602925082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.1545965</v>
+      </c>
+      <c r="H17">
+        <v>0.309193</v>
+      </c>
+      <c r="I17">
+        <v>0.007278090824108737</v>
+      </c>
+      <c r="J17">
+        <v>0.004863860422041627</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.060284</v>
+      </c>
+      <c r="N17">
+        <v>57.180852</v>
+      </c>
+      <c r="O17">
+        <v>0.2766333811792777</v>
+      </c>
+      <c r="P17">
+        <v>0.3066007470941366</v>
+      </c>
+      <c r="Q17">
+        <v>2.946653195406</v>
+      </c>
+      <c r="R17">
+        <v>17.679919172436</v>
+      </c>
+      <c r="S17">
+        <v>0.002013362873203076</v>
+      </c>
+      <c r="T17">
+        <v>0.001491263239159565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>19.4542752252072</v>
-      </c>
-      <c r="H7">
-        <v>19.4542752252072</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>7.9329567614953</v>
-      </c>
-      <c r="N7">
-        <v>7.9329567614953</v>
-      </c>
-      <c r="O7">
-        <v>0.1171980541628828</v>
-      </c>
-      <c r="P7">
-        <v>0.1171980541628828</v>
-      </c>
-      <c r="Q7">
-        <v>154.329924187798</v>
-      </c>
-      <c r="R7">
-        <v>154.329924187798</v>
-      </c>
-      <c r="S7">
-        <v>0.1171980541628828</v>
-      </c>
-      <c r="T7">
-        <v>0.1171980541628828</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.1545965</v>
+      </c>
+      <c r="H18">
+        <v>0.309193</v>
+      </c>
+      <c r="I18">
+        <v>0.007278090824108737</v>
+      </c>
+      <c r="J18">
+        <v>0.004863860422041627</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.045428</v>
+      </c>
+      <c r="N18">
+        <v>21.136284</v>
+      </c>
+      <c r="O18">
+        <v>0.1022545398324157</v>
+      </c>
+      <c r="P18">
+        <v>0.1133316527916346</v>
+      </c>
+      <c r="Q18">
+        <v>1.089198509802</v>
+      </c>
+      <c r="R18">
+        <v>6.535191058812</v>
+      </c>
+      <c r="S18">
+        <v>0.0007442178280777662</v>
+      </c>
+      <c r="T18">
+        <v>0.000551229340577795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.1545965</v>
+      </c>
+      <c r="H19">
+        <v>0.309193</v>
+      </c>
+      <c r="I19">
+        <v>0.007278090824108737</v>
+      </c>
+      <c r="J19">
+        <v>0.004863860422041627</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.174542499999999</v>
+      </c>
+      <c r="N19">
+        <v>16.349085</v>
+      </c>
+      <c r="O19">
+        <v>0.1186420586056696</v>
+      </c>
+      <c r="P19">
+        <v>0.08766294135151294</v>
+      </c>
+      <c r="Q19">
+        <v>1.26375565960125</v>
+      </c>
+      <c r="R19">
+        <v>5.055022638404999</v>
+      </c>
+      <c r="S19">
+        <v>0.0008634876780912946</v>
+      </c>
+      <c r="T19">
+        <v>0.0004263803109193801</v>
       </c>
     </row>
   </sheetData>
